--- a/src/main/resources/templates/xls/price_comparator_template.xlsx
+++ b/src/main/resources/templates/xls/price_comparator_template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Price PL</t>
   </si>
@@ -54,13 +54,28 @@
     <t>RO</t>
   </si>
   <si>
-    <t>$[H4*${item.priceRo}]</t>
-  </si>
-  <si>
-    <t>$[H2*${item.priceRu}]</t>
-  </si>
-  <si>
-    <t>$[H3*${item.priceLt}]</t>
+    <t>Price HU</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>${item.count}</t>
+  </si>
+  <si>
+    <t>$[J5*${item.priceHu}]</t>
+  </si>
+  <si>
+    <t>$[J2*${item.priceRu}]</t>
+  </si>
+  <si>
+    <t>$[J3*${item.priceLt}]</t>
+  </si>
+  <si>
+    <t>$[J4*${item.priceRo}]</t>
   </si>
 </sst>
 </file>
@@ -484,74 +499,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="1" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
       <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="I5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4">
+      <c r="J5">
         <v>1</v>
       </c>
     </row>
